--- a/meetingLog.xlsx
+++ b/meetingLog.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zhao\Documents\SCSU2014FallLenovo\531\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zhao\Documents\GitHub\Pizza\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>#</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -67,6 +67,21 @@
   </si>
   <si>
     <t>Team Meeting Log(Pizza Project)</t>
+  </si>
+  <si>
+    <t>28/9</t>
+  </si>
+  <si>
+    <t>6:30-8:30</t>
+  </si>
+  <si>
+    <t>library209</t>
+  </si>
+  <si>
+    <t>everyone</t>
+  </si>
+  <si>
+    <t>1. Discussed the use cases; 2. Discussed class diagram</t>
   </si>
 </sst>
 </file>
@@ -174,7 +189,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -202,26 +217,32 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -530,13 +551,14 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="3.33203125" style="1" customWidth="1"/>
-    <col min="2" max="3" width="4.88671875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="4.88671875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="6.6640625" style="2" customWidth="1"/>
     <col min="4" max="4" width="8.33203125" style="4" customWidth="1"/>
     <col min="5" max="5" width="9" customWidth="1"/>
     <col min="6" max="6" width="54.88671875" style="4" customWidth="1"/>
@@ -544,15 +566,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
     </row>
     <row r="2" spans="1:7" ht="31.2" customHeight="1">
       <c r="A2" s="5" t="s">
@@ -573,7 +595,7 @@
       <c r="F2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="9" t="s">
         <v>10</v>
       </c>
     </row>
@@ -581,16 +603,16 @@
       <c r="A3" s="5">
         <v>1</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="12" t="s">
         <v>9</v>
       </c>
       <c r="F3" s="3" t="s">
@@ -601,18 +623,30 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="5"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="3"/>
+      <c r="A4" s="5">
+        <v>2</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="G4" s="3"/>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="5"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="11"/>
       <c r="D5" s="3"/>
       <c r="E5" s="6"/>
       <c r="F5" s="3"/>
@@ -620,8 +654,8 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="5"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="11"/>
       <c r="D6" s="3"/>
       <c r="E6" s="6"/>
       <c r="F6" s="3"/>
@@ -629,8 +663,8 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="5"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="11"/>
       <c r="D7" s="3"/>
       <c r="E7" s="6"/>
       <c r="F7" s="3"/>
@@ -638,118 +672,118 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="5"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="11"/>
       <c r="D8" s="3"/>
-      <c r="E8" s="15"/>
+      <c r="E8" s="14"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="5"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="11"/>
       <c r="D9" s="3"/>
-      <c r="E9" s="15"/>
+      <c r="E9" s="14"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="5"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="11"/>
       <c r="D10" s="3"/>
-      <c r="E10" s="15"/>
+      <c r="E10" s="14"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="5"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="11"/>
       <c r="D11" s="3"/>
-      <c r="E11" s="15"/>
+      <c r="E11" s="14"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="5"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="11"/>
       <c r="D12" s="3"/>
-      <c r="E12" s="15"/>
+      <c r="E12" s="14"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="5"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="11"/>
       <c r="D13" s="3"/>
-      <c r="E13" s="15"/>
+      <c r="E13" s="14"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="5"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="11"/>
       <c r="D14" s="3"/>
-      <c r="E14" s="15"/>
+      <c r="E14" s="14"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="5"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="11"/>
       <c r="D15" s="3"/>
-      <c r="E15" s="15"/>
+      <c r="E15" s="14"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="5"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="11"/>
       <c r="D16" s="3"/>
-      <c r="E16" s="15"/>
+      <c r="E16" s="14"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="5"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="11"/>
       <c r="D17" s="3"/>
-      <c r="E17" s="15"/>
+      <c r="E17" s="14"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="5"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="11"/>
       <c r="D18" s="3"/>
-      <c r="E18" s="15"/>
+      <c r="E18" s="14"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="5"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="11"/>
       <c r="D19" s="3"/>
-      <c r="E19" s="15"/>
+      <c r="E19" s="14"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="5"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="11"/>
       <c r="D20" s="3"/>
-      <c r="E20" s="15"/>
+      <c r="E20" s="14"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
     </row>

--- a/meetingLog.xlsx
+++ b/meetingLog.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
   <si>
     <t>#</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -82,13 +82,34 @@
   </si>
   <si>
     <t>1. Discussed the use cases; 2. Discussed class diagram</t>
+  </si>
+  <si>
+    <t>30/9</t>
+  </si>
+  <si>
+    <t>7:00-9:00pm</t>
+  </si>
+  <si>
+    <t>library211</t>
+  </si>
+  <si>
+    <t>1. Update use cases;2. Discuss case test;3. Divided tasks</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>7-9pm</t>
+  </si>
+  <si>
+    <t>library231</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -126,6 +147,14 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -189,7 +218,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -223,9 +252,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -235,14 +261,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -551,14 +583,14 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="3.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="4.88671875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="6.6640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="6.6640625" style="18" customWidth="1"/>
     <col min="4" max="4" width="8.33203125" style="4" customWidth="1"/>
     <col min="5" max="5" width="9" customWidth="1"/>
     <col min="6" max="6" width="54.88671875" style="4" customWidth="1"/>
@@ -583,7 +615,7 @@
       <c r="B2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="16" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="6" t="s">
@@ -606,13 +638,13 @@
       <c r="B3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="11" t="s">
         <v>9</v>
       </c>
       <c r="F3" s="3" t="s">
@@ -626,13 +658,13 @@
       <c r="A4" s="5">
         <v>2</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="14" t="s">
         <v>16</v>
       </c>
       <c r="E4" s="6" t="s">
@@ -643,147 +675,167 @@
       </c>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="5"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="3"/>
+    <row r="5" spans="1:7" ht="20.399999999999999">
+      <c r="A5" s="5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="G5" s="3"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="5"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="3"/>
+      <c r="A6" s="5">
+        <v>4</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>21</v>
+      </c>
       <c r="E6" s="6"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="5"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="3"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="14"/>
       <c r="E7" s="6"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="5"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="14"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="13"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="5"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="14"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="13"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="5"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="14"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="13"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="5"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="14"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="13"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="5"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="14"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="13"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="5"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="14"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="13"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="5"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="14"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="13"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="5"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="14"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="13"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="5"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="14"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="13"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="5"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="14"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="13"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="5"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="14"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="13"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="5"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="11"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="17"/>
       <c r="D19" s="3"/>
-      <c r="E19" s="14"/>
+      <c r="E19" s="13"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="5"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="11"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="17"/>
       <c r="D20" s="3"/>
-      <c r="E20" s="14"/>
+      <c r="E20" s="13"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
     </row>

--- a/meetingLog.xlsx
+++ b/meetingLog.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="30">
   <si>
     <t>#</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -90,19 +90,31 @@
     <t>7:00-9:00pm</t>
   </si>
   <si>
-    <t>library211</t>
-  </si>
-  <si>
     <t>1. Update use cases;2. Discuss case test;3. Divided tasks</t>
   </si>
   <si>
     <t>2/10</t>
   </si>
   <si>
-    <t>7-9pm</t>
-  </si>
-  <si>
     <t>library231</t>
+  </si>
+  <si>
+    <t>3/10</t>
+  </si>
+  <si>
+    <t>6:30-9pm</t>
+  </si>
+  <si>
+    <t>library211,305</t>
+  </si>
+  <si>
+    <t>7-9pm-11pm</t>
+  </si>
+  <si>
+    <t>dicuss test test cases</t>
+  </si>
+  <si>
+    <t>finish 1.test cases2. status form3.assessment and submitted them, which is the first deliverable for this project</t>
   </si>
 </sst>
 </file>
@@ -264,17 +276,17 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -583,14 +595,14 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="3.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="4.88671875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="6.6640625" style="18" customWidth="1"/>
+    <col min="3" max="3" width="6.6640625" style="17" customWidth="1"/>
     <col min="4" max="4" width="8.33203125" style="4" customWidth="1"/>
     <col min="5" max="5" width="9" customWidth="1"/>
     <col min="6" max="6" width="54.88671875" style="4" customWidth="1"/>
@@ -598,15 +610,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
     </row>
     <row r="2" spans="1:7" ht="31.2" customHeight="1">
       <c r="A2" s="5" t="s">
@@ -615,7 +627,7 @@
       <c r="B2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="15" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="6" t="s">
@@ -638,7 +650,7 @@
       <c r="B3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="16" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="11" t="s">
@@ -661,7 +673,7 @@
       <c r="B4" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="16" t="s">
         <v>15</v>
       </c>
       <c r="D4" s="14" t="s">
@@ -682,50 +694,66 @@
       <c r="B5" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="16" t="s">
         <v>20</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" ht="20.399999999999999">
       <c r="A6" s="5">
         <v>4</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="3"/>
+    </row>
+    <row r="7" spans="1:7" ht="28.8">
+      <c r="A7" s="5">
+        <v>5</v>
+      </c>
+      <c r="B7" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="6"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="5"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="3"/>
+      <c r="C7" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="G7" s="3"/>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="5"/>
       <c r="B8" s="12"/>
-      <c r="C8" s="17"/>
+      <c r="C8" s="16"/>
       <c r="D8" s="14"/>
       <c r="E8" s="13"/>
       <c r="F8" s="3"/>
@@ -734,7 +762,7 @@
     <row r="9" spans="1:7">
       <c r="A9" s="5"/>
       <c r="B9" s="12"/>
-      <c r="C9" s="17"/>
+      <c r="C9" s="16"/>
       <c r="D9" s="14"/>
       <c r="E9" s="13"/>
       <c r="F9" s="3"/>
@@ -743,7 +771,7 @@
     <row r="10" spans="1:7">
       <c r="A10" s="5"/>
       <c r="B10" s="12"/>
-      <c r="C10" s="17"/>
+      <c r="C10" s="16"/>
       <c r="D10" s="14"/>
       <c r="E10" s="13"/>
       <c r="F10" s="3"/>
@@ -752,7 +780,7 @@
     <row r="11" spans="1:7">
       <c r="A11" s="5"/>
       <c r="B11" s="12"/>
-      <c r="C11" s="17"/>
+      <c r="C11" s="16"/>
       <c r="D11" s="14"/>
       <c r="E11" s="13"/>
       <c r="F11" s="3"/>
@@ -761,7 +789,7 @@
     <row r="12" spans="1:7">
       <c r="A12" s="5"/>
       <c r="B12" s="12"/>
-      <c r="C12" s="17"/>
+      <c r="C12" s="16"/>
       <c r="D12" s="14"/>
       <c r="E12" s="13"/>
       <c r="F12" s="3"/>
@@ -770,7 +798,7 @@
     <row r="13" spans="1:7">
       <c r="A13" s="5"/>
       <c r="B13" s="12"/>
-      <c r="C13" s="17"/>
+      <c r="C13" s="16"/>
       <c r="D13" s="14"/>
       <c r="E13" s="13"/>
       <c r="F13" s="3"/>
@@ -779,7 +807,7 @@
     <row r="14" spans="1:7">
       <c r="A14" s="5"/>
       <c r="B14" s="12"/>
-      <c r="C14" s="17"/>
+      <c r="C14" s="16"/>
       <c r="D14" s="14"/>
       <c r="E14" s="13"/>
       <c r="F14" s="3"/>
@@ -788,7 +816,7 @@
     <row r="15" spans="1:7">
       <c r="A15" s="5"/>
       <c r="B15" s="12"/>
-      <c r="C15" s="17"/>
+      <c r="C15" s="16"/>
       <c r="D15" s="14"/>
       <c r="E15" s="13"/>
       <c r="F15" s="3"/>
@@ -797,7 +825,7 @@
     <row r="16" spans="1:7">
       <c r="A16" s="5"/>
       <c r="B16" s="12"/>
-      <c r="C16" s="17"/>
+      <c r="C16" s="16"/>
       <c r="D16" s="14"/>
       <c r="E16" s="13"/>
       <c r="F16" s="3"/>
@@ -806,7 +834,7 @@
     <row r="17" spans="1:7">
       <c r="A17" s="5"/>
       <c r="B17" s="12"/>
-      <c r="C17" s="17"/>
+      <c r="C17" s="16"/>
       <c r="D17" s="14"/>
       <c r="E17" s="13"/>
       <c r="F17" s="3"/>
@@ -815,7 +843,7 @@
     <row r="18" spans="1:7">
       <c r="A18" s="5"/>
       <c r="B18" s="12"/>
-      <c r="C18" s="17"/>
+      <c r="C18" s="16"/>
       <c r="D18" s="14"/>
       <c r="E18" s="13"/>
       <c r="F18" s="3"/>
@@ -824,7 +852,7 @@
     <row r="19" spans="1:7">
       <c r="A19" s="5"/>
       <c r="B19" s="12"/>
-      <c r="C19" s="17"/>
+      <c r="C19" s="16"/>
       <c r="D19" s="3"/>
       <c r="E19" s="13"/>
       <c r="F19" s="3"/>
@@ -833,7 +861,7 @@
     <row r="20" spans="1:7">
       <c r="A20" s="5"/>
       <c r="B20" s="12"/>
-      <c r="C20" s="17"/>
+      <c r="C20" s="16"/>
       <c r="D20" s="3"/>
       <c r="E20" s="13"/>
       <c r="F20" s="3"/>

--- a/meetingLog.xlsx
+++ b/meetingLog.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zhao\Documents\GitHub\Pizza\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9396"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9390"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -290,7 +285,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -306,7 +301,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -348,7 +343,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -383,7 +378,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -595,18 +590,18 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="4.88671875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="6.6640625" style="17" customWidth="1"/>
-    <col min="4" max="4" width="8.33203125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="4.85546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="6.7109375" style="17" customWidth="1"/>
+    <col min="4" max="4" width="8.28515625" style="4" customWidth="1"/>
     <col min="5" max="5" width="9" customWidth="1"/>
-    <col min="6" max="6" width="54.88671875" style="4" customWidth="1"/>
-    <col min="7" max="7" width="9.77734375" style="4" customWidth="1"/>
+    <col min="6" max="6" width="54.85546875" style="4" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21">
@@ -620,7 +615,7 @@
       <c r="F1" s="18"/>
       <c r="G1" s="18"/>
     </row>
-    <row r="2" spans="1:7" ht="31.2" customHeight="1">
+    <row r="2" spans="1:7" ht="31.15" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -643,7 +638,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="30.6">
+    <row r="3" spans="1:7" ht="45">
       <c r="A3" s="5">
         <v>1</v>
       </c>
@@ -666,7 +661,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" ht="30">
       <c r="A4" s="5">
         <v>2</v>
       </c>
@@ -687,7 +682,7 @@
       </c>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:7" ht="20.399999999999999">
+    <row r="5" spans="1:7" ht="30">
       <c r="A5" s="5">
         <v>3</v>
       </c>
@@ -708,7 +703,7 @@
       </c>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="1:7" ht="20.399999999999999">
+    <row r="6" spans="1:7" ht="30">
       <c r="A6" s="5">
         <v>4</v>
       </c>
@@ -729,7 +724,7 @@
       </c>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:7" ht="28.8">
+    <row r="7" spans="1:7" ht="45">
       <c r="A7" s="5">
         <v>5</v>
       </c>
@@ -883,7 +878,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -896,7 +891,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/meetingLog.xlsx
+++ b/meetingLog.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
   <si>
     <t>#</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -115,6 +115,18 @@
   </si>
   <si>
     <t>finish 1.test cases2. status form3.assessment and submitted them, which is the first deliverable for this project</t>
+  </si>
+  <si>
+    <t>7/10</t>
+  </si>
+  <si>
+    <t>7pm-10pm</t>
+  </si>
+  <si>
+    <t>library210,211</t>
+  </si>
+  <si>
+    <t>finished 1. decide UML software and learn how to use it;2. 5 iterations of class diagrams of entity classses</t>
   </si>
 </sst>
 </file>
@@ -595,7 +607,7 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -750,13 +762,25 @@
       </c>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="5"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="3"/>
+    <row r="8" spans="1:7" ht="28.8">
+      <c r="A8" s="5">
+        <v>6</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>33</v>
+      </c>
       <c r="G8" s="3"/>
     </row>
     <row r="9" spans="1:7">

--- a/meetingLog.xlsx
+++ b/meetingLog.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="38">
   <si>
     <t>#</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -127,6 +127,18 @@
   </si>
   <si>
     <t>finished 1. decide UML software and learn how to use it;2. 5 iterations of class diagrams of entity classses</t>
+  </si>
+  <si>
+    <t>16/10</t>
+  </si>
+  <si>
+    <t>library209,210</t>
+  </si>
+  <si>
+    <t>everyone but Mo</t>
+  </si>
+  <si>
+    <t>1. discussed sequence diagrams.2. discuss class diagrams</t>
   </si>
 </sst>
 </file>
@@ -249,9 +261,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -264,24 +273,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -299,6 +299,18 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -607,289 +619,301 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="3.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="4.88671875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="6.6640625" style="17" customWidth="1"/>
-    <col min="4" max="4" width="8.33203125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="4.88671875" style="18" customWidth="1"/>
+    <col min="3" max="3" width="6.6640625" style="13" customWidth="1"/>
+    <col min="4" max="4" width="8.33203125" style="3" customWidth="1"/>
     <col min="5" max="5" width="9" customWidth="1"/>
-    <col min="6" max="6" width="54.88671875" style="4" customWidth="1"/>
-    <col min="7" max="7" width="9.77734375" style="4" customWidth="1"/>
+    <col min="6" max="6" width="54.88671875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="9.77734375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
     </row>
     <row r="2" spans="1:7" ht="31.2" customHeight="1">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="7" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="30.6">
-      <c r="A3" s="5">
+      <c r="A3" s="4">
         <v>1</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="5">
+      <c r="A4" s="4">
         <v>2</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="3"/>
+      <c r="G4" s="2"/>
     </row>
     <row r="5" spans="1:7" ht="20.399999999999999">
-      <c r="A5" s="5">
+      <c r="A5" s="4">
         <v>3</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="3"/>
+      <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:7" ht="20.399999999999999">
-      <c r="A6" s="5">
+      <c r="A6" s="4">
         <v>4</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G6" s="3"/>
+      <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:7" ht="28.8">
-      <c r="A7" s="5">
+      <c r="A7" s="4">
         <v>5</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G7" s="3"/>
+      <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:7" ht="28.8">
-      <c r="A8" s="5">
+      <c r="A8" s="4">
         <v>6</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="E8" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="G8" s="3"/>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="5"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="1:7" ht="28.8">
+      <c r="A9" s="4">
+        <v>7</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="5"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
+      <c r="A10" s="4"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="5"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
+      <c r="A11" s="4"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="5"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
+      <c r="A12" s="4"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="5"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
+      <c r="A13" s="4"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="5"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
+      <c r="A14" s="4"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="5"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
+      <c r="A15" s="4"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="5"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
+      <c r="A16" s="4"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="5"/>
-      <c r="B17" s="12"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
+      <c r="A17" s="4"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="5"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
+      <c r="A18" s="4"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="5"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
+      <c r="A19" s="4"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="5"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
+      <c r="A20" s="4"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/meetingLog.xlsx
+++ b/meetingLog.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="42">
   <si>
     <t>#</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -135,10 +135,22 @@
     <t>library209,210</t>
   </si>
   <si>
-    <t>everyone but Mo</t>
-  </si>
-  <si>
     <t>1. discussed sequence diagrams.2. discuss class diagrams</t>
+  </si>
+  <si>
+    <t>19/10</t>
+  </si>
+  <si>
+    <t>7-11pm</t>
+  </si>
+  <si>
+    <t>library227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">everyone </t>
+  </si>
+  <si>
+    <t>1. finished class diagrams and method detail design2. software product description3. sequence diagram4. full class diagram</t>
   </si>
 </sst>
 </file>
@@ -297,20 +309,20 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -619,13 +631,13 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="3.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="4.88671875" style="18" customWidth="1"/>
+    <col min="2" max="2" width="4.88671875" style="17" customWidth="1"/>
     <col min="3" max="3" width="6.6640625" style="13" customWidth="1"/>
     <col min="4" max="4" width="8.33203125" style="3" customWidth="1"/>
     <col min="5" max="5" width="9" customWidth="1"/>
@@ -634,21 +646,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
     </row>
     <row r="2" spans="1:7" ht="31.2" customHeight="1">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="14" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="11" t="s">
@@ -671,7 +683,7 @@
       <c r="A3" s="4">
         <v>1</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="15" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="12" t="s">
@@ -694,7 +706,7 @@
       <c r="A4" s="4">
         <v>2</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="16" t="s">
         <v>14</v>
       </c>
       <c r="C4" s="12" t="s">
@@ -715,7 +727,7 @@
       <c r="A5" s="4">
         <v>3</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="16" t="s">
         <v>19</v>
       </c>
       <c r="C5" s="12" t="s">
@@ -736,7 +748,7 @@
       <c r="A6" s="4">
         <v>4</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="16" t="s">
         <v>22</v>
       </c>
       <c r="C6" s="12" t="s">
@@ -757,7 +769,7 @@
       <c r="A7" s="4">
         <v>5</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="16" t="s">
         <v>24</v>
       </c>
       <c r="C7" s="12" t="s">
@@ -778,7 +790,7 @@
       <c r="A8" s="4">
         <v>6</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="16" t="s">
         <v>30</v>
       </c>
       <c r="C8" s="12" t="s">
@@ -795,11 +807,11 @@
       </c>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:7" ht="28.8">
+    <row r="9" spans="1:7" ht="20.399999999999999">
       <c r="A9" s="4">
         <v>7</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="16" t="s">
         <v>34</v>
       </c>
       <c r="C9" s="12" t="s">
@@ -809,25 +821,37 @@
         <v>35</v>
       </c>
       <c r="E9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" spans="1:7" ht="28.8">
+      <c r="A10" s="4">
+        <v>8</v>
+      </c>
+      <c r="B10" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="G9" s="2"/>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="4"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="2"/>
+      <c r="C10" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="4"/>
-      <c r="B11" s="17"/>
+      <c r="B11" s="16"/>
       <c r="C11" s="12"/>
       <c r="D11" s="10"/>
       <c r="E11" s="9"/>
@@ -836,7 +860,7 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="4"/>
-      <c r="B12" s="17"/>
+      <c r="B12" s="16"/>
       <c r="C12" s="12"/>
       <c r="D12" s="10"/>
       <c r="E12" s="9"/>
@@ -845,7 +869,7 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="4"/>
-      <c r="B13" s="17"/>
+      <c r="B13" s="16"/>
       <c r="C13" s="12"/>
       <c r="D13" s="10"/>
       <c r="E13" s="9"/>
@@ -854,7 +878,7 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="4"/>
-      <c r="B14" s="17"/>
+      <c r="B14" s="16"/>
       <c r="C14" s="12"/>
       <c r="D14" s="10"/>
       <c r="E14" s="9"/>
@@ -863,7 +887,7 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="4"/>
-      <c r="B15" s="17"/>
+      <c r="B15" s="16"/>
       <c r="C15" s="12"/>
       <c r="D15" s="10"/>
       <c r="E15" s="9"/>
@@ -872,7 +896,7 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="4"/>
-      <c r="B16" s="17"/>
+      <c r="B16" s="16"/>
       <c r="C16" s="12"/>
       <c r="D16" s="10"/>
       <c r="E16" s="9"/>
@@ -881,7 +905,7 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="4"/>
-      <c r="B17" s="17"/>
+      <c r="B17" s="16"/>
       <c r="C17" s="12"/>
       <c r="D17" s="10"/>
       <c r="E17" s="9"/>
@@ -890,7 +914,7 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="4"/>
-      <c r="B18" s="17"/>
+      <c r="B18" s="16"/>
       <c r="C18" s="12"/>
       <c r="D18" s="10"/>
       <c r="E18" s="9"/>
@@ -899,7 +923,7 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="4"/>
-      <c r="B19" s="17"/>
+      <c r="B19" s="16"/>
       <c r="C19" s="12"/>
       <c r="D19" s="2"/>
       <c r="E19" s="9"/>
@@ -908,7 +932,7 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="4"/>
-      <c r="B20" s="17"/>
+      <c r="B20" s="16"/>
       <c r="C20" s="12"/>
       <c r="D20" s="2"/>
       <c r="E20" s="9"/>

--- a/meetingLog.xlsx
+++ b/meetingLog.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="46">
   <si>
     <t>#</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -151,6 +151,18 @@
   </si>
   <si>
     <t>1. finished class diagrams and method detail design2. software product description3. sequence diagram4. full class diagram</t>
+  </si>
+  <si>
+    <t>21/10</t>
+  </si>
+  <si>
+    <t>7-10pm</t>
+  </si>
+  <si>
+    <t>library315</t>
+  </si>
+  <si>
+    <t>1.finished status report. 2. finished Userinterface detailed design.3. evaluation report</t>
   </si>
 </sst>
 </file>
@@ -631,7 +643,7 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -849,13 +861,25 @@
       </c>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="4"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="2"/>
+    <row r="11" spans="1:7" ht="28.8">
+      <c r="A11" s="4">
+        <v>9</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:7">

--- a/meetingLog.xlsx
+++ b/meetingLog.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="49">
   <si>
     <t>#</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -163,6 +163,15 @@
   </si>
   <si>
     <t>1.finished status report. 2. finished Userinterface detailed design.3. evaluation report</t>
+  </si>
+  <si>
+    <t>26/10</t>
+  </si>
+  <si>
+    <t>library230</t>
+  </si>
+  <si>
+    <t>1. Analyze the email from Segati 2. separate the test cases into happy path and negtive path</t>
   </si>
 </sst>
 </file>
@@ -643,7 +652,7 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -882,13 +891,25 @@
       </c>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="4"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="2"/>
+    <row r="12" spans="1:7" ht="28.8">
+      <c r="A12" s="4">
+        <v>10</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:7">

--- a/meetingLog.xlsx
+++ b/meetingLog.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="53">
   <si>
     <t>#</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -172,6 +172,18 @@
   </si>
   <si>
     <t>1. Analyze the email from Segati 2. separate the test cases into happy path and negtive path</t>
+  </si>
+  <si>
+    <t>28/10</t>
+  </si>
+  <si>
+    <t>7-9pm</t>
+  </si>
+  <si>
+    <t>library317</t>
+  </si>
+  <si>
+    <t>1. analyze the email from candy about the 3 use cases.2. leader changed the some class names 3. divided task</t>
   </si>
 </sst>
 </file>
@@ -652,7 +664,7 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -912,13 +924,25 @@
       </c>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="4"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="2"/>
+    <row r="13" spans="1:7" ht="28.8">
+      <c r="A13" s="4">
+        <v>11</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="G13" s="2"/>
     </row>
     <row r="14" spans="1:7">

--- a/meetingLog.xlsx
+++ b/meetingLog.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zhao\Documents\GitHub\Pizza\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zhao\Documents\SCSU2014FallLenovo\531\project\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="56">
   <si>
     <t>#</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -184,6 +184,15 @@
   </si>
   <si>
     <t>1. analyze the email from candy about the 3 use cases.2. leader changed the some class names 3. divided task</t>
+  </si>
+  <si>
+    <t>2/11</t>
+  </si>
+  <si>
+    <t>library315,210</t>
+  </si>
+  <si>
+    <t>1.checked, modified, and added missed items</t>
   </si>
 </sst>
 </file>
@@ -664,7 +673,7 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -945,13 +954,25 @@
       </c>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="4"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="2"/>
+    <row r="14" spans="1:7" ht="20.399999999999999">
+      <c r="A14" s="4">
+        <v>12</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="G14" s="2"/>
     </row>
     <row r="15" spans="1:7">

--- a/meetingLog.xlsx
+++ b/meetingLog.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zhao\Documents\SCSU2014FallLenovo\531\project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zhao\Documents\GitHub\Pizza\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="59">
   <si>
     <t>#</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -193,6 +193,15 @@
   </si>
   <si>
     <t>1.checked, modified, and added missed items</t>
+  </si>
+  <si>
+    <t>4/11</t>
+  </si>
+  <si>
+    <t>library 317</t>
+  </si>
+  <si>
+    <t>1. decided C# language. 2. divided task.3. prepare for the implementation</t>
   </si>
 </sst>
 </file>
@@ -673,7 +682,7 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -975,13 +984,25 @@
       </c>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="4"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="2"/>
+    <row r="15" spans="1:7" ht="28.8">
+      <c r="A15" s="4">
+        <v>13</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>58</v>
+      </c>
       <c r="G15" s="2"/>
     </row>
     <row r="16" spans="1:7">

--- a/meetingLog.xlsx
+++ b/meetingLog.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="62">
   <si>
     <t>#</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -202,6 +202,15 @@
   </si>
   <si>
     <t>1. decided C# language. 2. divided task.3. prepare for the implementation</t>
+  </si>
+  <si>
+    <t>11/6</t>
+  </si>
+  <si>
+    <t>3-5pm</t>
+  </si>
+  <si>
+    <t>1. Check entity class coding and solve problems.2. devided tasks</t>
   </si>
 </sst>
 </file>
@@ -1005,13 +1014,25 @@
       </c>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="4"/>
-      <c r="B16" s="16"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="2"/>
+    <row r="16" spans="1:7" ht="20.399999999999999">
+      <c r="A16" s="4">
+        <v>14</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>61</v>
+      </c>
       <c r="G16" s="2"/>
     </row>
     <row r="17" spans="1:7">

--- a/meetingLog.xlsx
+++ b/meetingLog.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="65">
   <si>
     <t>#</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -204,13 +204,22 @@
     <t>1. decided C# language. 2. divided task.3. prepare for the implementation</t>
   </si>
   <si>
-    <t>11/6</t>
-  </si>
-  <si>
     <t>3-5pm</t>
   </si>
   <si>
     <t>1. Check entity class coding and solve problems.2. devided tasks</t>
+  </si>
+  <si>
+    <t>6/11</t>
+  </si>
+  <si>
+    <t>13/11</t>
+  </si>
+  <si>
+    <t>1.try to finish the UI</t>
+  </si>
+  <si>
+    <t>16/11</t>
   </si>
 </sst>
 </file>
@@ -691,7 +700,7 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1019,10 +1028,10 @@
         <v>14</v>
       </c>
       <c r="B16" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" s="12" t="s">
         <v>59</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>60</v>
       </c>
       <c r="D16" s="10" t="s">
         <v>8</v>
@@ -1031,25 +1040,47 @@
         <v>17</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="4"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="2"/>
+    <row r="17" spans="1:7" ht="20.399999999999999">
+      <c r="A17" s="4">
+        <v>15</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>63</v>
+      </c>
       <c r="G17" s="2"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="4"/>
-      <c r="B18" s="16"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="9"/>
+      <c r="A18" s="4">
+        <v>16</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
     </row>

--- a/meetingLog.xlsx
+++ b/meetingLog.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="72">
   <si>
     <t>#</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -220,6 +220,27 @@
   </si>
   <si>
     <t>16/11</t>
+  </si>
+  <si>
+    <t>19/11</t>
+  </si>
+  <si>
+    <t>7-10:30pm</t>
+  </si>
+  <si>
+    <t>library Second floor</t>
+  </si>
+  <si>
+    <t>20/11</t>
+  </si>
+  <si>
+    <t>modify the entity classes to check format, like 6 digits</t>
+  </si>
+  <si>
+    <t>unit testing</t>
+  </si>
+  <si>
+    <t>unit testing and finished the deliberable 3</t>
   </si>
 </sst>
 </file>
@@ -699,8 +720,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1081,25 +1102,51 @@
       <c r="E18" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F18" s="2"/>
+      <c r="F18" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="G18" s="2"/>
     </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="4"/>
-      <c r="B19" s="16"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="2"/>
+    <row r="19" spans="1:7" ht="30.6">
+      <c r="A19" s="4">
+        <v>17</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>71</v>
+      </c>
       <c r="G19" s="2"/>
     </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="4"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="2"/>
+    <row r="20" spans="1:7" ht="20.399999999999999">
+      <c r="A20" s="4">
+        <v>18</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>69</v>
+      </c>
       <c r="G20" s="2"/>
     </row>
   </sheetData>

--- a/meetingLog.xlsx
+++ b/meetingLog.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="75">
   <si>
     <t>#</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -241,6 +241,15 @@
   </si>
   <si>
     <t>unit testing and finished the deliberable 3</t>
+  </si>
+  <si>
+    <t>23/11</t>
+  </si>
+  <si>
+    <t>library 233</t>
+  </si>
+  <si>
+    <t>1. try to finish the GUI</t>
   </si>
 </sst>
 </file>
@@ -356,7 +365,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -413,6 +422,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -718,10 +730,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1148,6 +1160,60 @@
         <v>69</v>
       </c>
       <c r="G20" s="2"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="4">
+        <v>19</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="E21" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G21" s="2"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="4">
+        <v>20</v>
+      </c>
+      <c r="B22" s="16"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="4">
+        <v>21</v>
+      </c>
+      <c r="B23" s="16"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="4">
+        <v>22</v>
+      </c>
+      <c r="B24" s="16"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/meetingLog.xlsx
+++ b/meetingLog.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="78">
   <si>
     <t>#</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -250,6 +250,15 @@
   </si>
   <si>
     <t>1. try to finish the GUI</t>
+  </si>
+  <si>
+    <t>30/11</t>
+  </si>
+  <si>
+    <t>library210</t>
+  </si>
+  <si>
+    <t>fixed bugs</t>
   </si>
 </sst>
 </file>
@@ -420,11 +429,11 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -733,7 +742,7 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -748,15 +757,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
     </row>
     <row r="2" spans="1:7" ht="31.2" customHeight="1">
       <c r="A2" s="4" t="s">
@@ -1174,7 +1183,7 @@
       <c r="D21" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="E21" s="19" t="s">
+      <c r="E21" s="18" t="s">
         <v>17</v>
       </c>
       <c r="F21" s="2" t="s">
@@ -1186,11 +1195,21 @@
       <c r="A22" s="4">
         <v>20</v>
       </c>
-      <c r="B22" s="16"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="2"/>
+      <c r="B22" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>77</v>
+      </c>
       <c r="G22" s="2"/>
     </row>
     <row r="23" spans="1:7">

--- a/meetingLog.xlsx
+++ b/meetingLog.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="80">
   <si>
     <t>#</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -259,6 +259,12 @@
   </si>
   <si>
     <t>fixed bugs</t>
+  </si>
+  <si>
+    <t>regression test</t>
+  </si>
+  <si>
+    <t>2/12</t>
   </si>
 </sst>
 </file>
@@ -742,7 +748,7 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1216,11 +1222,21 @@
       <c r="A23" s="4">
         <v>21</v>
       </c>
-      <c r="B23" s="16"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="2"/>
+      <c r="B23" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="G23" s="2"/>
     </row>
     <row r="24" spans="1:7">

--- a/meetingLog.xlsx
+++ b/meetingLog.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="78">
   <si>
     <t>#</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -259,12 +259,6 @@
   </si>
   <si>
     <t>fixed bugs</t>
-  </si>
-  <si>
-    <t>regression test</t>
-  </si>
-  <si>
-    <t>2/12</t>
   </si>
 </sst>
 </file>
@@ -748,7 +742,7 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1222,21 +1216,11 @@
       <c r="A23" s="4">
         <v>21</v>
       </c>
-      <c r="B23" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>78</v>
-      </c>
+      <c r="B23" s="16"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="2"/>
       <c r="G23" s="2"/>
     </row>
     <row r="24" spans="1:7">

--- a/meetingLog.xlsx
+++ b/meetingLog.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="92">
   <si>
     <t>#</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -265,6 +265,42 @@
   </si>
   <si>
     <t>2/12</t>
+  </si>
+  <si>
+    <t>modify the sequence diagram</t>
+  </si>
+  <si>
+    <t>4/12</t>
+  </si>
+  <si>
+    <t>7/12</t>
+  </si>
+  <si>
+    <t>library211</t>
+  </si>
+  <si>
+    <t>prepare for deliverable 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8/12 </t>
+  </si>
+  <si>
+    <t>7-8pm</t>
+  </si>
+  <si>
+    <t>library first floor</t>
+  </si>
+  <si>
+    <t>prepare for oral presentation</t>
+  </si>
+  <si>
+    <t>9/12</t>
+  </si>
+  <si>
+    <t>library317,230</t>
+  </si>
+  <si>
+    <t>create test data and practice presentation</t>
   </si>
 </sst>
 </file>
@@ -329,7 +365,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -374,13 +410,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -440,6 +489,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -745,10 +800,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1239,16 +1294,98 @@
       </c>
       <c r="G23" s="2"/>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" ht="20.399999999999999">
       <c r="A24" s="4">
         <v>22</v>
       </c>
-      <c r="B24" s="16"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="2"/>
+      <c r="B24" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="G24" s="2"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="20">
+        <v>23</v>
+      </c>
+      <c r="B25" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="C25" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="E25" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G25" s="2"/>
+    </row>
+    <row r="26" spans="1:7" ht="20.399999999999999">
+      <c r="A26" s="20">
+        <v>24</v>
+      </c>
+      <c r="B26" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="C26" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="E26" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G26" s="2"/>
+    </row>
+    <row r="27" spans="1:7" ht="20.399999999999999">
+      <c r="A27" s="20">
+        <v>25</v>
+      </c>
+      <c r="B27" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="C27" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="E27" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G27" s="2"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="4"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/meetingLog.xlsx
+++ b/meetingLog.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="95">
   <si>
     <t>#</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -301,6 +301,15 @@
   </si>
   <si>
     <t>create test data and practice presentation</t>
+  </si>
+  <si>
+    <t>11/12</t>
+  </si>
+  <si>
+    <t>10-11am</t>
+  </si>
+  <si>
+    <t>Rehearsal for presentation</t>
   </si>
 </sst>
 </file>
@@ -487,14 +496,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -803,7 +812,7 @@
   <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -818,15 +827,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
     </row>
     <row r="2" spans="1:7" ht="31.2" customHeight="1">
       <c r="A2" s="4" t="s">
@@ -1316,13 +1325,13 @@
       <c r="G24" s="2"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="20">
+      <c r="A25" s="19">
         <v>23</v>
       </c>
       <c r="B25" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="C25" s="21" t="s">
+      <c r="C25" s="20" t="s">
         <v>43</v>
       </c>
       <c r="D25" s="10" t="s">
@@ -1337,13 +1346,13 @@
       <c r="G25" s="2"/>
     </row>
     <row r="26" spans="1:7" ht="20.399999999999999">
-      <c r="A26" s="20">
+      <c r="A26" s="19">
         <v>24</v>
       </c>
       <c r="B26" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="C26" s="21" t="s">
+      <c r="C26" s="20" t="s">
         <v>86</v>
       </c>
       <c r="D26" s="10" t="s">
@@ -1358,13 +1367,13 @@
       <c r="G26" s="2"/>
     </row>
     <row r="27" spans="1:7" ht="20.399999999999999">
-      <c r="A27" s="20">
+      <c r="A27" s="19">
         <v>25</v>
       </c>
       <c r="B27" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="C27" s="21" t="s">
+      <c r="C27" s="20" t="s">
         <v>38</v>
       </c>
       <c r="D27" s="10" t="s">
@@ -1378,13 +1387,25 @@
       </c>
       <c r="G27" s="2"/>
     </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="4"/>
-      <c r="B28" s="16"/>
-      <c r="C28" s="21"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="2"/>
+    <row r="28" spans="1:7" ht="20.399999999999999">
+      <c r="A28" s="4">
+        <v>26</v>
+      </c>
+      <c r="B28" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="C28" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>94</v>
+      </c>
       <c r="G28" s="2"/>
     </row>
   </sheetData>
